--- a/Calculos posicion y ADC.xlsx
+++ b/Calculos posicion y ADC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\SynologyDrive\IDEAA Lab\Proyectos\Controlador de servos RF\Firmware\ControladorServosRF.X\servo_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4294CF-9498-4CEF-A5F5-EA45C154603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A63F2-19CB-4DFB-8C01-E03C821E744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41865" yWindow="3600" windowWidth="23970" windowHeight="11490" activeTab="1" xr2:uid="{7592B63C-CEEC-464A-9F40-153DC77A53F9}"/>
+    <workbookView xWindow="3720" yWindow="3315" windowWidth="23970" windowHeight="11490" activeTab="1" xr2:uid="{7592B63C-CEEC-464A-9F40-153DC77A53F9}"/>
   </bookViews>
   <sheets>
     <sheet name="254" sheetId="1" r:id="rId1"/>
@@ -12248,7 +12248,7 @@
   <dimension ref="B1:O264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f>$I$2+ROUNDDOWN(($B9*$I$4)/256,0)</f>
         <v>507</v>
       </c>
       <c r="J9">

--- a/Calculos posicion y ADC.xlsx
+++ b/Calculos posicion y ADC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\SynologyDrive\IDEAA Lab\Proyectos\Controlador de servos RF\Firmware\ControladorServosRF.X\servo_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A63F2-19CB-4DFB-8C01-E03C821E744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB7920-612B-405F-9555-BE73FC71061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3315" windowWidth="23970" windowHeight="11490" activeTab="1" xr2:uid="{7592B63C-CEEC-464A-9F40-153DC77A53F9}"/>
+    <workbookView xWindow="1215" yWindow="6915" windowWidth="23970" windowHeight="11490" activeTab="2" xr2:uid="{7592B63C-CEEC-464A-9F40-153DC77A53F9}"/>
   </bookViews>
   <sheets>
     <sheet name="254" sheetId="1" r:id="rId1"/>
     <sheet name="255" sheetId="2" r:id="rId2"/>
+    <sheet name="Calc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Servo_pos_min</t>
   </si>
@@ -63,12 +64,33 @@
   <si>
     <t>r*adc&gt;&gt;8</t>
   </si>
+  <si>
+    <t>Valor deseado para Servo_pos_max</t>
+  </si>
+  <si>
+    <t>Valor deseado para Servo_pos_min</t>
+  </si>
+  <si>
+    <t>Usar este valor para Servo_pos_min</t>
+  </si>
+  <si>
+    <t>Usar este valor para Servo_pos_max</t>
+  </si>
+  <si>
+    <t>Valor maximo de ADC</t>
+  </si>
+  <si>
+    <t>ADC_max_val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +105,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,11 +222,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -204,6 +271,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12247,8 +12334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB4EFC-C531-41C4-BAE3-1782F2E57DF7}">
   <dimension ref="B1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView topLeftCell="A241" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I263" sqref="I263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12323,7 +12410,7 @@
         <v>2500</v>
       </c>
       <c r="I3" s="6">
-        <v>2508</v>
+        <v>2507.8429999999998</v>
       </c>
       <c r="K3" s="6">
         <v>507</v>
@@ -12351,7 +12438,7 @@
       </c>
       <c r="I4" s="5">
         <f>I3-I2</f>
-        <v>2008</v>
+        <v>2007.8429999999998</v>
       </c>
       <c r="K4" s="5">
         <f>K3-K2</f>
@@ -13883,11 +13970,11 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
@@ -14738,11 +14825,11 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K59">
         <f t="shared" si="4"/>
@@ -15323,11 +15410,11 @@
       </c>
       <c r="I72">
         <f t="shared" ref="I72:I135" si="13">$I$2+ROUNDDOWN(($B72*$I$4)/256,0)</f>
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72:J135" si="14">I72-C72</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72:K135" si="15">$K$2+ROUNDDOWN(($B72*$K$4)/256,0)</f>
@@ -16178,11 +16265,11 @@
       </c>
       <c r="I91">
         <f t="shared" si="13"/>
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J91">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <f t="shared" si="15"/>
@@ -16763,11 +16850,11 @@
       </c>
       <c r="I104">
         <f t="shared" si="13"/>
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J104">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <f t="shared" si="15"/>
@@ -17033,11 +17120,11 @@
       </c>
       <c r="I110">
         <f t="shared" si="13"/>
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J110">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K110">
         <f t="shared" si="15"/>
@@ -17618,11 +17705,11 @@
       </c>
       <c r="I123">
         <f t="shared" si="13"/>
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J123">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <f t="shared" si="15"/>
@@ -18203,11 +18290,11 @@
       </c>
       <c r="I136">
         <f t="shared" ref="I136:I199" si="24">$I$2+ROUNDDOWN(($B136*$I$4)/256,0)</f>
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J136">
         <f t="shared" ref="J136:J199" si="25">I136-C136</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <f t="shared" ref="K136:K199" si="26">$K$2+ROUNDDOWN(($B136*$K$4)/256,0)</f>
@@ -18473,11 +18560,11 @@
       </c>
       <c r="I142">
         <f t="shared" si="24"/>
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J142">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <f t="shared" si="26"/>
@@ -19058,11 +19145,11 @@
       </c>
       <c r="I155">
         <f t="shared" si="24"/>
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J155">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <f t="shared" si="26"/>
@@ -19328,11 +19415,11 @@
       </c>
       <c r="I161">
         <f t="shared" si="24"/>
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J161">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K161">
         <f t="shared" si="26"/>
@@ -19643,11 +19730,11 @@
       </c>
       <c r="I168">
         <f t="shared" si="24"/>
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J168">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <f t="shared" si="26"/>
@@ -19913,11 +20000,11 @@
       </c>
       <c r="I174">
         <f t="shared" si="24"/>
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J174">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <f t="shared" si="26"/>
@@ -20498,11 +20585,11 @@
       </c>
       <c r="I187">
         <f t="shared" si="24"/>
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J187">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <f t="shared" si="26"/>
@@ -20768,11 +20855,11 @@
       </c>
       <c r="I193">
         <f t="shared" si="24"/>
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="J193">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <f t="shared" si="26"/>
@@ -21083,11 +21170,11 @@
       </c>
       <c r="I200">
         <f t="shared" ref="I200:I263" si="35">$I$2+ROUNDDOWN(($B200*$I$4)/256,0)</f>
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="J200">
         <f t="shared" ref="J200:J263" si="36">I200-C200</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <f t="shared" ref="K200:K263" si="37">$K$2+ROUNDDOWN(($B200*$K$4)/256,0)</f>
@@ -21353,11 +21440,11 @@
       </c>
       <c r="I206">
         <f t="shared" si="35"/>
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="J206">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206">
         <f t="shared" si="37"/>
@@ -21623,11 +21710,11 @@
       </c>
       <c r="I212">
         <f t="shared" si="35"/>
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J212">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K212">
         <f t="shared" si="37"/>
@@ -21938,11 +22025,11 @@
       </c>
       <c r="I219">
         <f t="shared" si="35"/>
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="J219">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219">
         <f t="shared" si="37"/>
@@ -22208,11 +22295,11 @@
       </c>
       <c r="I225">
         <f t="shared" si="35"/>
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="J225">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225">
         <f t="shared" si="37"/>
@@ -22523,11 +22610,11 @@
       </c>
       <c r="I232">
         <f t="shared" si="35"/>
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="J232">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <f t="shared" si="37"/>
@@ -22793,11 +22880,11 @@
       </c>
       <c r="I238">
         <f t="shared" si="35"/>
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="J238">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <f t="shared" si="37"/>
@@ -23063,11 +23150,11 @@
       </c>
       <c r="I244">
         <f t="shared" si="35"/>
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="J244">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244">
         <f t="shared" si="37"/>
@@ -23378,11 +23465,11 @@
       </c>
       <c r="I251">
         <f t="shared" si="35"/>
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J251">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K251">
         <f t="shared" si="37"/>
@@ -23648,11 +23735,11 @@
       </c>
       <c r="I257">
         <f t="shared" si="35"/>
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="J257">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K257">
         <f t="shared" si="37"/>
@@ -23916,13 +24003,13 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="I263">
-        <f t="shared" si="35"/>
-        <v>2500</v>
+      <c r="I263" s="13">
+        <f>$I$2+($B263*$I$4)/256</f>
+        <v>2499.9998632812499</v>
       </c>
       <c r="J263">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1.3671875012732926E-4</v>
       </c>
       <c r="K263">
         <f t="shared" si="37"/>
@@ -23948,7 +24035,7 @@
       </c>
       <c r="J264" s="10">
         <f>SUM(J8:J263)</f>
-        <v>21</v>
+        <v>-4.0001367187501273</v>
       </c>
       <c r="L264">
         <f>SUM(L8:L263)</f>
@@ -23966,4 +24053,4507 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="260" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C0FB29-C108-4189-ADD0-2F6AA15CDA9C}">
+  <dimension ref="B1:L264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>500</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16">
+        <f>L6</f>
+        <v>500</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="15">
+        <f>L7</f>
+        <v>2508</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <f>C3-C2</f>
+        <v>2000</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="19">
+        <f>E3-E2</f>
+        <v>2008</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>255</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15">
+        <f>L4</f>
+        <v>255</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <f>$C$4/C$5</f>
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="14">
+        <f>L2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="14">
+        <f>ROUNDUP((L3-L2)*256/L4+L2,0)</f>
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C27" si="0">ROUNDDOWN($C$2+($B8*C$6),0)</f>
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <f>$E$2+ROUNDDOWN(($B8*$E$4)/256,0)</f>
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <f>E8-C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="E9">
+        <f>$E$2+ROUNDDOWN(($B9*$E$4)/256,0)</f>
+        <v>507</v>
+      </c>
+      <c r="F9">
+        <f>E9-C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="E10">
+        <f>$E$2+ROUNDDOWN(($B10*$E$4)/256,0)</f>
+        <v>515</v>
+      </c>
+      <c r="F10">
+        <f>E10-C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
+      <c r="E11">
+        <f>$E$2+ROUNDDOWN(($B11*$E$4)/256,0)</f>
+        <v>523</v>
+      </c>
+      <c r="F11">
+        <f>E11-C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="E12">
+        <f>$E$2+ROUNDDOWN(($B12*$E$4)/256,0)</f>
+        <v>531</v>
+      </c>
+      <c r="F12">
+        <f>E12-C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="E13">
+        <f>$E$2+ROUNDDOWN(($B13*$E$4)/256,0)</f>
+        <v>539</v>
+      </c>
+      <c r="F13">
+        <f>E13-C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>547</v>
+      </c>
+      <c r="E14">
+        <f>$E$2+ROUNDDOWN(($B14*$E$4)/256,0)</f>
+        <v>547</v>
+      </c>
+      <c r="F14">
+        <f>E14-C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+      <c r="E15">
+        <f>$E$2+ROUNDDOWN(($B15*$E$4)/256,0)</f>
+        <v>554</v>
+      </c>
+      <c r="F15">
+        <f>E15-C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+      <c r="E16">
+        <f>$E$2+ROUNDDOWN(($B16*$E$4)/256,0)</f>
+        <v>562</v>
+      </c>
+      <c r="F16">
+        <f>E16-C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="E17">
+        <f>$E$2+ROUNDDOWN(($B17*$E$4)/256,0)</f>
+        <v>570</v>
+      </c>
+      <c r="F17">
+        <f>E17-C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="E18">
+        <f>$E$2+ROUNDDOWN(($B18*$E$4)/256,0)</f>
+        <v>578</v>
+      </c>
+      <c r="F18">
+        <f>E18-C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="E19">
+        <f>$E$2+ROUNDDOWN(($B19*$E$4)/256,0)</f>
+        <v>586</v>
+      </c>
+      <c r="F19">
+        <f>E19-C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="E20">
+        <f>$E$2+ROUNDDOWN(($B20*$E$4)/256,0)</f>
+        <v>594</v>
+      </c>
+      <c r="F20">
+        <f>E20-C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="E21">
+        <f>$E$2+ROUNDDOWN(($B21*$E$4)/256,0)</f>
+        <v>601</v>
+      </c>
+      <c r="F21">
+        <f>E21-C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="E22">
+        <f>$E$2+ROUNDDOWN(($B22*$E$4)/256,0)</f>
+        <v>609</v>
+      </c>
+      <c r="F22">
+        <f>E22-C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+      <c r="E23">
+        <f>$E$2+ROUNDDOWN(($B23*$E$4)/256,0)</f>
+        <v>617</v>
+      </c>
+      <c r="F23">
+        <f>E23-C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E24">
+        <f>$E$2+ROUNDDOWN(($B24*$E$4)/256,0)</f>
+        <v>625</v>
+      </c>
+      <c r="F24">
+        <f>E24-C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>633</v>
+      </c>
+      <c r="E25">
+        <f>$E$2+ROUNDDOWN(($B25*$E$4)/256,0)</f>
+        <v>633</v>
+      </c>
+      <c r="F25">
+        <f>E25-C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>641</v>
+      </c>
+      <c r="E26">
+        <f>$E$2+ROUNDDOWN(($B26*$E$4)/256,0)</f>
+        <v>641</v>
+      </c>
+      <c r="F26">
+        <f>E26-C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="E27">
+        <f>$E$2+ROUNDDOWN(($B27*$E$4)/256,0)</f>
+        <v>649</v>
+      </c>
+      <c r="F27">
+        <f>E27-C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C47" si="1">ROUNDDOWN($C$2+($B28*C$6),0)</f>
+        <v>656</v>
+      </c>
+      <c r="E28">
+        <f>$E$2+ROUNDDOWN(($B28*$E$4)/256,0)</f>
+        <v>656</v>
+      </c>
+      <c r="F28">
+        <f>E28-C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>664</v>
+      </c>
+      <c r="E29">
+        <f>$E$2+ROUNDDOWN(($B29*$E$4)/256,0)</f>
+        <v>664</v>
+      </c>
+      <c r="F29">
+        <f>E29-C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="E30">
+        <f>$E$2+ROUNDDOWN(($B30*$E$4)/256,0)</f>
+        <v>672</v>
+      </c>
+      <c r="F30">
+        <f>E30-C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="E31">
+        <f>$E$2+ROUNDDOWN(($B31*$E$4)/256,0)</f>
+        <v>680</v>
+      </c>
+      <c r="F31">
+        <f>E31-C31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="E32">
+        <f>$E$2+ROUNDDOWN(($B32*$E$4)/256,0)</f>
+        <v>688</v>
+      </c>
+      <c r="F32">
+        <f>E32-C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="E33">
+        <f>$E$2+ROUNDDOWN(($B33*$E$4)/256,0)</f>
+        <v>696</v>
+      </c>
+      <c r="F33">
+        <f>E33-C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>703</v>
+      </c>
+      <c r="E34">
+        <f>$E$2+ROUNDDOWN(($B34*$E$4)/256,0)</f>
+        <v>703</v>
+      </c>
+      <c r="F34">
+        <f>E34-C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="E35">
+        <f>$E$2+ROUNDDOWN(($B35*$E$4)/256,0)</f>
+        <v>711</v>
+      </c>
+      <c r="F35">
+        <f>E35-C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="E36">
+        <f>$E$2+ROUNDDOWN(($B36*$E$4)/256,0)</f>
+        <v>719</v>
+      </c>
+      <c r="F36">
+        <f>E36-C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>727</v>
+      </c>
+      <c r="E37">
+        <f>$E$2+ROUNDDOWN(($B37*$E$4)/256,0)</f>
+        <v>727</v>
+      </c>
+      <c r="F37">
+        <f>E37-C37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="E38">
+        <f>$E$2+ROUNDDOWN(($B38*$E$4)/256,0)</f>
+        <v>735</v>
+      </c>
+      <c r="F38">
+        <f>E38-C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="E39">
+        <f>$E$2+ROUNDDOWN(($B39*$E$4)/256,0)</f>
+        <v>743</v>
+      </c>
+      <c r="F39">
+        <f>E39-C39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="E40">
+        <f>$E$2+ROUNDDOWN(($B40*$E$4)/256,0)</f>
+        <v>751</v>
+      </c>
+      <c r="F40">
+        <f>E40-C40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>758</v>
+      </c>
+      <c r="E41">
+        <f>$E$2+ROUNDDOWN(($B41*$E$4)/256,0)</f>
+        <v>758</v>
+      </c>
+      <c r="F41">
+        <f>E41-C41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>766</v>
+      </c>
+      <c r="E42">
+        <f>$E$2+ROUNDDOWN(($B42*$E$4)/256,0)</f>
+        <v>766</v>
+      </c>
+      <c r="F42">
+        <f>E42-C42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>774</v>
+      </c>
+      <c r="E43">
+        <f>$E$2+ROUNDDOWN(($B43*$E$4)/256,0)</f>
+        <v>774</v>
+      </c>
+      <c r="F43">
+        <f>E43-C43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>782</v>
+      </c>
+      <c r="E44">
+        <f>$E$2+ROUNDDOWN(($B44*$E$4)/256,0)</f>
+        <v>782</v>
+      </c>
+      <c r="F44">
+        <f>E44-C44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="E45">
+        <f>$E$2+ROUNDDOWN(($B45*$E$4)/256,0)</f>
+        <v>790</v>
+      </c>
+      <c r="F45">
+        <f>E45-C45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>798</v>
+      </c>
+      <c r="E46">
+        <f>$E$2+ROUNDDOWN(($B46*$E$4)/256,0)</f>
+        <v>798</v>
+      </c>
+      <c r="F46">
+        <f>E46-C46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+      <c r="E47">
+        <f>$E$2+ROUNDDOWN(($B47*$E$4)/256,0)</f>
+        <v>805</v>
+      </c>
+      <c r="F47">
+        <f>E47-C47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C67" si="2">ROUNDDOWN($C$2+($B48*C$6),0)</f>
+        <v>813</v>
+      </c>
+      <c r="E48">
+        <f>$E$2+ROUNDDOWN(($B48*$E$4)/256,0)</f>
+        <v>813</v>
+      </c>
+      <c r="F48">
+        <f>E48-C48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>821</v>
+      </c>
+      <c r="E49">
+        <f>$E$2+ROUNDDOWN(($B49*$E$4)/256,0)</f>
+        <v>821</v>
+      </c>
+      <c r="F49">
+        <f>E49-C49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>829</v>
+      </c>
+      <c r="E50">
+        <f>$E$2+ROUNDDOWN(($B50*$E$4)/256,0)</f>
+        <v>829</v>
+      </c>
+      <c r="F50">
+        <f>E50-C50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>837</v>
+      </c>
+      <c r="E51">
+        <f>$E$2+ROUNDDOWN(($B51*$E$4)/256,0)</f>
+        <v>837</v>
+      </c>
+      <c r="F51">
+        <f>E51-C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>845</v>
+      </c>
+      <c r="E52">
+        <f>$E$2+ROUNDDOWN(($B52*$E$4)/256,0)</f>
+        <v>845</v>
+      </c>
+      <c r="F52">
+        <f>E52-C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="E53">
+        <f>$E$2+ROUNDDOWN(($B53*$E$4)/256,0)</f>
+        <v>852</v>
+      </c>
+      <c r="F53">
+        <f>E53-C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="E54">
+        <f>$E$2+ROUNDDOWN(($B54*$E$4)/256,0)</f>
+        <v>860</v>
+      </c>
+      <c r="F54">
+        <f>E54-C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="E55">
+        <f>$E$2+ROUNDDOWN(($B55*$E$4)/256,0)</f>
+        <v>868</v>
+      </c>
+      <c r="F55">
+        <f>E55-C55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>876</v>
+      </c>
+      <c r="E56">
+        <f>$E$2+ROUNDDOWN(($B56*$E$4)/256,0)</f>
+        <v>876</v>
+      </c>
+      <c r="F56">
+        <f>E56-C56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>884</v>
+      </c>
+      <c r="E57">
+        <f>$E$2+ROUNDDOWN(($B57*$E$4)/256,0)</f>
+        <v>884</v>
+      </c>
+      <c r="F57">
+        <f>E57-C57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>892</v>
+      </c>
+      <c r="E58">
+        <f>$E$2+ROUNDDOWN(($B58*$E$4)/256,0)</f>
+        <v>892</v>
+      </c>
+      <c r="F58">
+        <f>E58-C58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="E59">
+        <f>$E$2+ROUNDDOWN(($B59*$E$4)/256,0)</f>
+        <v>900</v>
+      </c>
+      <c r="F59">
+        <f>E59-C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>52</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="E60">
+        <f>$E$2+ROUNDDOWN(($B60*$E$4)/256,0)</f>
+        <v>907</v>
+      </c>
+      <c r="F60">
+        <f>E60-C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>915</v>
+      </c>
+      <c r="E61">
+        <f>$E$2+ROUNDDOWN(($B61*$E$4)/256,0)</f>
+        <v>915</v>
+      </c>
+      <c r="F61">
+        <f>E61-C61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>54</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>923</v>
+      </c>
+      <c r="E62">
+        <f>$E$2+ROUNDDOWN(($B62*$E$4)/256,0)</f>
+        <v>923</v>
+      </c>
+      <c r="F62">
+        <f>E62-C62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+      <c r="E63">
+        <f>$E$2+ROUNDDOWN(($B63*$E$4)/256,0)</f>
+        <v>931</v>
+      </c>
+      <c r="F63">
+        <f>E63-C63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+      <c r="E64">
+        <f>$E$2+ROUNDDOWN(($B64*$E$4)/256,0)</f>
+        <v>939</v>
+      </c>
+      <c r="F64">
+        <f>E64-C64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>947</v>
+      </c>
+      <c r="E65">
+        <f>$E$2+ROUNDDOWN(($B65*$E$4)/256,0)</f>
+        <v>947</v>
+      </c>
+      <c r="F65">
+        <f>E65-C65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>954</v>
+      </c>
+      <c r="E66">
+        <f>$E$2+ROUNDDOWN(($B66*$E$4)/256,0)</f>
+        <v>954</v>
+      </c>
+      <c r="F66">
+        <f>E66-C66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="E67">
+        <f>$E$2+ROUNDDOWN(($B67*$E$4)/256,0)</f>
+        <v>962</v>
+      </c>
+      <c r="F67">
+        <f>E67-C67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C87" si="3">ROUNDDOWN($C$2+($B68*C$6),0)</f>
+        <v>970</v>
+      </c>
+      <c r="E68">
+        <f>$E$2+ROUNDDOWN(($B68*$E$4)/256,0)</f>
+        <v>970</v>
+      </c>
+      <c r="F68">
+        <f>E68-C68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>978</v>
+      </c>
+      <c r="E69">
+        <f>$E$2+ROUNDDOWN(($B69*$E$4)/256,0)</f>
+        <v>978</v>
+      </c>
+      <c r="F69">
+        <f>E69-C69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>62</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>986</v>
+      </c>
+      <c r="E70">
+        <f>$E$2+ROUNDDOWN(($B70*$E$4)/256,0)</f>
+        <v>986</v>
+      </c>
+      <c r="F70">
+        <f>E70-C70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>994</v>
+      </c>
+      <c r="E71">
+        <f>$E$2+ROUNDDOWN(($B71*$E$4)/256,0)</f>
+        <v>994</v>
+      </c>
+      <c r="F71">
+        <f>E71-C71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>64</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>1001</v>
+      </c>
+      <c r="E72">
+        <f>$E$2+ROUNDDOWN(($B72*$E$4)/256,0)</f>
+        <v>1002</v>
+      </c>
+      <c r="F72">
+        <f>E72-C72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>65</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="E73">
+        <f>$E$2+ROUNDDOWN(($B73*$E$4)/256,0)</f>
+        <v>1009</v>
+      </c>
+      <c r="F73">
+        <f>E73-C73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>1017</v>
+      </c>
+      <c r="E74">
+        <f>$E$2+ROUNDDOWN(($B74*$E$4)/256,0)</f>
+        <v>1017</v>
+      </c>
+      <c r="F74">
+        <f>E74-C74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>1025</v>
+      </c>
+      <c r="E75">
+        <f>$E$2+ROUNDDOWN(($B75*$E$4)/256,0)</f>
+        <v>1025</v>
+      </c>
+      <c r="F75">
+        <f>E75-C75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>68</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="E76">
+        <f>$E$2+ROUNDDOWN(($B76*$E$4)/256,0)</f>
+        <v>1033</v>
+      </c>
+      <c r="F76">
+        <f>E76-C76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>69</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>1041</v>
+      </c>
+      <c r="E77">
+        <f>$E$2+ROUNDDOWN(($B77*$E$4)/256,0)</f>
+        <v>1041</v>
+      </c>
+      <c r="F77">
+        <f>E77-C77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>1049</v>
+      </c>
+      <c r="E78">
+        <f>$E$2+ROUNDDOWN(($B78*$E$4)/256,0)</f>
+        <v>1049</v>
+      </c>
+      <c r="F78">
+        <f>E78-C78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>1056</v>
+      </c>
+      <c r="E79">
+        <f>$E$2+ROUNDDOWN(($B79*$E$4)/256,0)</f>
+        <v>1056</v>
+      </c>
+      <c r="F79">
+        <f>E79-C79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>1064</v>
+      </c>
+      <c r="E80">
+        <f>$E$2+ROUNDDOWN(($B80*$E$4)/256,0)</f>
+        <v>1064</v>
+      </c>
+      <c r="F80">
+        <f>E80-C80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>73</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="E81">
+        <f>$E$2+ROUNDDOWN(($B81*$E$4)/256,0)</f>
+        <v>1072</v>
+      </c>
+      <c r="F81">
+        <f>E81-C81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>74</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="E82">
+        <f>$E$2+ROUNDDOWN(($B82*$E$4)/256,0)</f>
+        <v>1080</v>
+      </c>
+      <c r="F82">
+        <f>E82-C82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>75</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>1088</v>
+      </c>
+      <c r="E83">
+        <f>$E$2+ROUNDDOWN(($B83*$E$4)/256,0)</f>
+        <v>1088</v>
+      </c>
+      <c r="F83">
+        <f>E83-C83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>76</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>1096</v>
+      </c>
+      <c r="E84">
+        <f>$E$2+ROUNDDOWN(($B84*$E$4)/256,0)</f>
+        <v>1096</v>
+      </c>
+      <c r="F84">
+        <f>E84-C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>77</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>1103</v>
+      </c>
+      <c r="E85">
+        <f>$E$2+ROUNDDOWN(($B85*$E$4)/256,0)</f>
+        <v>1103</v>
+      </c>
+      <c r="F85">
+        <f>E85-C85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>78</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="E86">
+        <f>$E$2+ROUNDDOWN(($B86*$E$4)/256,0)</f>
+        <v>1111</v>
+      </c>
+      <c r="F86">
+        <f>E86-C86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>79</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>1119</v>
+      </c>
+      <c r="E87">
+        <f>$E$2+ROUNDDOWN(($B87*$E$4)/256,0)</f>
+        <v>1119</v>
+      </c>
+      <c r="F87">
+        <f>E87-C87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>80</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:C107" si="4">ROUNDDOWN($C$2+($B88*C$6),0)</f>
+        <v>1127</v>
+      </c>
+      <c r="E88">
+        <f>$E$2+ROUNDDOWN(($B88*$E$4)/256,0)</f>
+        <v>1127</v>
+      </c>
+      <c r="F88">
+        <f>E88-C88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>81</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>1135</v>
+      </c>
+      <c r="E89">
+        <f>$E$2+ROUNDDOWN(($B89*$E$4)/256,0)</f>
+        <v>1135</v>
+      </c>
+      <c r="F89">
+        <f>E89-C89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>82</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>1143</v>
+      </c>
+      <c r="E90">
+        <f>$E$2+ROUNDDOWN(($B90*$E$4)/256,0)</f>
+        <v>1143</v>
+      </c>
+      <c r="F90">
+        <f>E90-C90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>83</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>1150</v>
+      </c>
+      <c r="E91">
+        <f>$E$2+ROUNDDOWN(($B91*$E$4)/256,0)</f>
+        <v>1151</v>
+      </c>
+      <c r="F91">
+        <f>E91-C91</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>84</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>1158</v>
+      </c>
+      <c r="E92">
+        <f>$E$2+ROUNDDOWN(($B92*$E$4)/256,0)</f>
+        <v>1158</v>
+      </c>
+      <c r="F92">
+        <f>E92-C92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>85</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>1166</v>
+      </c>
+      <c r="E93">
+        <f>$E$2+ROUNDDOWN(($B93*$E$4)/256,0)</f>
+        <v>1166</v>
+      </c>
+      <c r="F93">
+        <f>E93-C93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>86</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>1174</v>
+      </c>
+      <c r="E94">
+        <f>$E$2+ROUNDDOWN(($B94*$E$4)/256,0)</f>
+        <v>1174</v>
+      </c>
+      <c r="F94">
+        <f>E94-C94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>87</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>1182</v>
+      </c>
+      <c r="E95">
+        <f>$E$2+ROUNDDOWN(($B95*$E$4)/256,0)</f>
+        <v>1182</v>
+      </c>
+      <c r="F95">
+        <f>E95-C95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>88</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>1190</v>
+      </c>
+      <c r="E96">
+        <f>$E$2+ROUNDDOWN(($B96*$E$4)/256,0)</f>
+        <v>1190</v>
+      </c>
+      <c r="F96">
+        <f>E96-C96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>89</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>1198</v>
+      </c>
+      <c r="E97">
+        <f>$E$2+ROUNDDOWN(($B97*$E$4)/256,0)</f>
+        <v>1198</v>
+      </c>
+      <c r="F97">
+        <f>E97-C97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>90</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>1205</v>
+      </c>
+      <c r="E98">
+        <f>$E$2+ROUNDDOWN(($B98*$E$4)/256,0)</f>
+        <v>1205</v>
+      </c>
+      <c r="F98">
+        <f>E98-C98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>91</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>1213</v>
+      </c>
+      <c r="E99">
+        <f>$E$2+ROUNDDOWN(($B99*$E$4)/256,0)</f>
+        <v>1213</v>
+      </c>
+      <c r="F99">
+        <f>E99-C99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>92</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>1221</v>
+      </c>
+      <c r="E100">
+        <f>$E$2+ROUNDDOWN(($B100*$E$4)/256,0)</f>
+        <v>1221</v>
+      </c>
+      <c r="F100">
+        <f>E100-C100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>93</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>1229</v>
+      </c>
+      <c r="E101">
+        <f>$E$2+ROUNDDOWN(($B101*$E$4)/256,0)</f>
+        <v>1229</v>
+      </c>
+      <c r="F101">
+        <f>E101-C101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>94</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>1237</v>
+      </c>
+      <c r="E102">
+        <f>$E$2+ROUNDDOWN(($B102*$E$4)/256,0)</f>
+        <v>1237</v>
+      </c>
+      <c r="F102">
+        <f>E102-C102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>95</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="4"/>
+        <v>1245</v>
+      </c>
+      <c r="E103">
+        <f>$E$2+ROUNDDOWN(($B103*$E$4)/256,0)</f>
+        <v>1245</v>
+      </c>
+      <c r="F103">
+        <f>E103-C103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>96</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>1252</v>
+      </c>
+      <c r="E104">
+        <f>$E$2+ROUNDDOWN(($B104*$E$4)/256,0)</f>
+        <v>1253</v>
+      </c>
+      <c r="F104">
+        <f>E104-C104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>97</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="E105">
+        <f>$E$2+ROUNDDOWN(($B105*$E$4)/256,0)</f>
+        <v>1260</v>
+      </c>
+      <c r="F105">
+        <f>E105-C105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>98</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>1268</v>
+      </c>
+      <c r="E106">
+        <f>$E$2+ROUNDDOWN(($B106*$E$4)/256,0)</f>
+        <v>1268</v>
+      </c>
+      <c r="F106">
+        <f>E106-C106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>99</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>1276</v>
+      </c>
+      <c r="E107">
+        <f>$E$2+ROUNDDOWN(($B107*$E$4)/256,0)</f>
+        <v>1276</v>
+      </c>
+      <c r="F107">
+        <f>E107-C107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108:C127" si="5">ROUNDDOWN($C$2+($B108*C$6),0)</f>
+        <v>1284</v>
+      </c>
+      <c r="E108">
+        <f>$E$2+ROUNDDOWN(($B108*$E$4)/256,0)</f>
+        <v>1284</v>
+      </c>
+      <c r="F108">
+        <f>E108-C108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>101</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>1292</v>
+      </c>
+      <c r="E109">
+        <f>$E$2+ROUNDDOWN(($B109*$E$4)/256,0)</f>
+        <v>1292</v>
+      </c>
+      <c r="F109">
+        <f>E109-C109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>102</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="E110">
+        <f>$E$2+ROUNDDOWN(($B110*$E$4)/256,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="F110">
+        <f>E110-C110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>103</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>1307</v>
+      </c>
+      <c r="E111">
+        <f>$E$2+ROUNDDOWN(($B111*$E$4)/256,0)</f>
+        <v>1307</v>
+      </c>
+      <c r="F111">
+        <f>E111-C111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>104</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>1315</v>
+      </c>
+      <c r="E112">
+        <f>$E$2+ROUNDDOWN(($B112*$E$4)/256,0)</f>
+        <v>1315</v>
+      </c>
+      <c r="F112">
+        <f>E112-C112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>105</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>1323</v>
+      </c>
+      <c r="E113">
+        <f>$E$2+ROUNDDOWN(($B113*$E$4)/256,0)</f>
+        <v>1323</v>
+      </c>
+      <c r="F113">
+        <f>E113-C113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>106</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>1331</v>
+      </c>
+      <c r="E114">
+        <f>$E$2+ROUNDDOWN(($B114*$E$4)/256,0)</f>
+        <v>1331</v>
+      </c>
+      <c r="F114">
+        <f>E114-C114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>107</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>1339</v>
+      </c>
+      <c r="E115">
+        <f>$E$2+ROUNDDOWN(($B115*$E$4)/256,0)</f>
+        <v>1339</v>
+      </c>
+      <c r="F115">
+        <f>E115-C115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>108</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>1347</v>
+      </c>
+      <c r="E116">
+        <f>$E$2+ROUNDDOWN(($B116*$E$4)/256,0)</f>
+        <v>1347</v>
+      </c>
+      <c r="F116">
+        <f>E116-C116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>109</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="5"/>
+        <v>1354</v>
+      </c>
+      <c r="E117">
+        <f>$E$2+ROUNDDOWN(($B117*$E$4)/256,0)</f>
+        <v>1354</v>
+      </c>
+      <c r="F117">
+        <f>E117-C117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>110</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="5"/>
+        <v>1362</v>
+      </c>
+      <c r="E118">
+        <f>$E$2+ROUNDDOWN(($B118*$E$4)/256,0)</f>
+        <v>1362</v>
+      </c>
+      <c r="F118">
+        <f>E118-C118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>111</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="5"/>
+        <v>1370</v>
+      </c>
+      <c r="E119">
+        <f>$E$2+ROUNDDOWN(($B119*$E$4)/256,0)</f>
+        <v>1370</v>
+      </c>
+      <c r="F119">
+        <f>E119-C119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>112</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="5"/>
+        <v>1378</v>
+      </c>
+      <c r="E120">
+        <f>$E$2+ROUNDDOWN(($B120*$E$4)/256,0)</f>
+        <v>1378</v>
+      </c>
+      <c r="F120">
+        <f>E120-C120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>113</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>1386</v>
+      </c>
+      <c r="E121">
+        <f>$E$2+ROUNDDOWN(($B121*$E$4)/256,0)</f>
+        <v>1386</v>
+      </c>
+      <c r="F121">
+        <f>E121-C121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>114</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>1394</v>
+      </c>
+      <c r="E122">
+        <f>$E$2+ROUNDDOWN(($B122*$E$4)/256,0)</f>
+        <v>1394</v>
+      </c>
+      <c r="F122">
+        <f>E122-C122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>115</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>1401</v>
+      </c>
+      <c r="E123">
+        <f>$E$2+ROUNDDOWN(($B123*$E$4)/256,0)</f>
+        <v>1402</v>
+      </c>
+      <c r="F123">
+        <f>E123-C123</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>116</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>1409</v>
+      </c>
+      <c r="E124">
+        <f>$E$2+ROUNDDOWN(($B124*$E$4)/256,0)</f>
+        <v>1409</v>
+      </c>
+      <c r="F124">
+        <f>E124-C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>117</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>1417</v>
+      </c>
+      <c r="E125">
+        <f>$E$2+ROUNDDOWN(($B125*$E$4)/256,0)</f>
+        <v>1417</v>
+      </c>
+      <c r="F125">
+        <f>E125-C125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>118</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>1425</v>
+      </c>
+      <c r="E126">
+        <f>$E$2+ROUNDDOWN(($B126*$E$4)/256,0)</f>
+        <v>1425</v>
+      </c>
+      <c r="F126">
+        <f>E126-C126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>119</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="5"/>
+        <v>1433</v>
+      </c>
+      <c r="E127">
+        <f>$E$2+ROUNDDOWN(($B127*$E$4)/256,0)</f>
+        <v>1433</v>
+      </c>
+      <c r="F127">
+        <f>E127-C127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>120</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:C147" si="6">ROUNDDOWN($C$2+($B128*C$6),0)</f>
+        <v>1441</v>
+      </c>
+      <c r="E128">
+        <f>$E$2+ROUNDDOWN(($B128*$E$4)/256,0)</f>
+        <v>1441</v>
+      </c>
+      <c r="F128">
+        <f>E128-C128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>121</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="6"/>
+        <v>1449</v>
+      </c>
+      <c r="E129">
+        <f>$E$2+ROUNDDOWN(($B129*$E$4)/256,0)</f>
+        <v>1449</v>
+      </c>
+      <c r="F129">
+        <f>E129-C129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>122</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="6"/>
+        <v>1456</v>
+      </c>
+      <c r="E130">
+        <f>$E$2+ROUNDDOWN(($B130*$E$4)/256,0)</f>
+        <v>1456</v>
+      </c>
+      <c r="F130">
+        <f>E130-C130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>123</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="6"/>
+        <v>1464</v>
+      </c>
+      <c r="E131">
+        <f>$E$2+ROUNDDOWN(($B131*$E$4)/256,0)</f>
+        <v>1464</v>
+      </c>
+      <c r="F131">
+        <f>E131-C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>124</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="6"/>
+        <v>1472</v>
+      </c>
+      <c r="E132">
+        <f>$E$2+ROUNDDOWN(($B132*$E$4)/256,0)</f>
+        <v>1472</v>
+      </c>
+      <c r="F132">
+        <f>E132-C132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>125</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="6"/>
+        <v>1480</v>
+      </c>
+      <c r="E133">
+        <f>$E$2+ROUNDDOWN(($B133*$E$4)/256,0)</f>
+        <v>1480</v>
+      </c>
+      <c r="F133">
+        <f>E133-C133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>126</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="6"/>
+        <v>1488</v>
+      </c>
+      <c r="E134">
+        <f>$E$2+ROUNDDOWN(($B134*$E$4)/256,0)</f>
+        <v>1488</v>
+      </c>
+      <c r="F134">
+        <f>E134-C134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>127</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="6"/>
+        <v>1496</v>
+      </c>
+      <c r="E135">
+        <f>$E$2+ROUNDDOWN(($B135*$E$4)/256,0)</f>
+        <v>1496</v>
+      </c>
+      <c r="F135">
+        <f>E135-C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>128</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="6"/>
+        <v>1503</v>
+      </c>
+      <c r="E136">
+        <f>$E$2+ROUNDDOWN(($B136*$E$4)/256,0)</f>
+        <v>1504</v>
+      </c>
+      <c r="F136">
+        <f>E136-C136</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>129</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="6"/>
+        <v>1511</v>
+      </c>
+      <c r="E137">
+        <f>$E$2+ROUNDDOWN(($B137*$E$4)/256,0)</f>
+        <v>1511</v>
+      </c>
+      <c r="F137">
+        <f>E137-C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>130</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="6"/>
+        <v>1519</v>
+      </c>
+      <c r="E138">
+        <f>$E$2+ROUNDDOWN(($B138*$E$4)/256,0)</f>
+        <v>1519</v>
+      </c>
+      <c r="F138">
+        <f>E138-C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>131</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="6"/>
+        <v>1527</v>
+      </c>
+      <c r="E139">
+        <f>$E$2+ROUNDDOWN(($B139*$E$4)/256,0)</f>
+        <v>1527</v>
+      </c>
+      <c r="F139">
+        <f>E139-C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>132</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="6"/>
+        <v>1535</v>
+      </c>
+      <c r="E140">
+        <f>$E$2+ROUNDDOWN(($B140*$E$4)/256,0)</f>
+        <v>1535</v>
+      </c>
+      <c r="F140">
+        <f>E140-C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>133</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="6"/>
+        <v>1543</v>
+      </c>
+      <c r="E141">
+        <f>$E$2+ROUNDDOWN(($B141*$E$4)/256,0)</f>
+        <v>1543</v>
+      </c>
+      <c r="F141">
+        <f>E141-C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>134</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="6"/>
+        <v>1550</v>
+      </c>
+      <c r="E142">
+        <f>$E$2+ROUNDDOWN(($B142*$E$4)/256,0)</f>
+        <v>1551</v>
+      </c>
+      <c r="F142">
+        <f>E142-C142</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>135</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="6"/>
+        <v>1558</v>
+      </c>
+      <c r="E143">
+        <f>$E$2+ROUNDDOWN(($B143*$E$4)/256,0)</f>
+        <v>1558</v>
+      </c>
+      <c r="F143">
+        <f>E143-C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>136</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="6"/>
+        <v>1566</v>
+      </c>
+      <c r="E144">
+        <f>$E$2+ROUNDDOWN(($B144*$E$4)/256,0)</f>
+        <v>1566</v>
+      </c>
+      <c r="F144">
+        <f>E144-C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>137</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="6"/>
+        <v>1574</v>
+      </c>
+      <c r="E145">
+        <f>$E$2+ROUNDDOWN(($B145*$E$4)/256,0)</f>
+        <v>1574</v>
+      </c>
+      <c r="F145">
+        <f>E145-C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>138</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="6"/>
+        <v>1582</v>
+      </c>
+      <c r="E146">
+        <f>$E$2+ROUNDDOWN(($B146*$E$4)/256,0)</f>
+        <v>1582</v>
+      </c>
+      <c r="F146">
+        <f>E146-C146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>139</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="6"/>
+        <v>1590</v>
+      </c>
+      <c r="E147">
+        <f>$E$2+ROUNDDOWN(($B147*$E$4)/256,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="F147">
+        <f>E147-C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>140</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:C167" si="7">ROUNDDOWN($C$2+($B148*C$6),0)</f>
+        <v>1598</v>
+      </c>
+      <c r="E148">
+        <f>$E$2+ROUNDDOWN(($B148*$E$4)/256,0)</f>
+        <v>1598</v>
+      </c>
+      <c r="F148">
+        <f>E148-C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>141</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="7"/>
+        <v>1605</v>
+      </c>
+      <c r="E149">
+        <f>$E$2+ROUNDDOWN(($B149*$E$4)/256,0)</f>
+        <v>1605</v>
+      </c>
+      <c r="F149">
+        <f>E149-C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>142</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="7"/>
+        <v>1613</v>
+      </c>
+      <c r="E150">
+        <f>$E$2+ROUNDDOWN(($B150*$E$4)/256,0)</f>
+        <v>1613</v>
+      </c>
+      <c r="F150">
+        <f>E150-C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>143</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="7"/>
+        <v>1621</v>
+      </c>
+      <c r="E151">
+        <f>$E$2+ROUNDDOWN(($B151*$E$4)/256,0)</f>
+        <v>1621</v>
+      </c>
+      <c r="F151">
+        <f>E151-C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>144</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="7"/>
+        <v>1629</v>
+      </c>
+      <c r="E152">
+        <f>$E$2+ROUNDDOWN(($B152*$E$4)/256,0)</f>
+        <v>1629</v>
+      </c>
+      <c r="F152">
+        <f>E152-C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>145</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="7"/>
+        <v>1637</v>
+      </c>
+      <c r="E153">
+        <f>$E$2+ROUNDDOWN(($B153*$E$4)/256,0)</f>
+        <v>1637</v>
+      </c>
+      <c r="F153">
+        <f>E153-C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>146</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="7"/>
+        <v>1645</v>
+      </c>
+      <c r="E154">
+        <f>$E$2+ROUNDDOWN(($B154*$E$4)/256,0)</f>
+        <v>1645</v>
+      </c>
+      <c r="F154">
+        <f>E154-C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>147</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="7"/>
+        <v>1652</v>
+      </c>
+      <c r="E155">
+        <f>$E$2+ROUNDDOWN(($B155*$E$4)/256,0)</f>
+        <v>1653</v>
+      </c>
+      <c r="F155">
+        <f>E155-C155</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>148</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="7"/>
+        <v>1660</v>
+      </c>
+      <c r="E156">
+        <f>$E$2+ROUNDDOWN(($B156*$E$4)/256,0)</f>
+        <v>1660</v>
+      </c>
+      <c r="F156">
+        <f>E156-C156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>149</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="7"/>
+        <v>1668</v>
+      </c>
+      <c r="E157">
+        <f>$E$2+ROUNDDOWN(($B157*$E$4)/256,0)</f>
+        <v>1668</v>
+      </c>
+      <c r="F157">
+        <f>E157-C157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>150</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="7"/>
+        <v>1676</v>
+      </c>
+      <c r="E158">
+        <f>$E$2+ROUNDDOWN(($B158*$E$4)/256,0)</f>
+        <v>1676</v>
+      </c>
+      <c r="F158">
+        <f>E158-C158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>151</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="7"/>
+        <v>1684</v>
+      </c>
+      <c r="E159">
+        <f>$E$2+ROUNDDOWN(($B159*$E$4)/256,0)</f>
+        <v>1684</v>
+      </c>
+      <c r="F159">
+        <f>E159-C159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>152</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="7"/>
+        <v>1692</v>
+      </c>
+      <c r="E160">
+        <f>$E$2+ROUNDDOWN(($B160*$E$4)/256,0)</f>
+        <v>1692</v>
+      </c>
+      <c r="F160">
+        <f>E160-C160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>153</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="7"/>
+        <v>1700</v>
+      </c>
+      <c r="E161">
+        <f>$E$2+ROUNDDOWN(($B161*$E$4)/256,0)</f>
+        <v>1700</v>
+      </c>
+      <c r="F161">
+        <f>E161-C161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>154</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="7"/>
+        <v>1707</v>
+      </c>
+      <c r="E162">
+        <f>$E$2+ROUNDDOWN(($B162*$E$4)/256,0)</f>
+        <v>1707</v>
+      </c>
+      <c r="F162">
+        <f>E162-C162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>155</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="7"/>
+        <v>1715</v>
+      </c>
+      <c r="E163">
+        <f>$E$2+ROUNDDOWN(($B163*$E$4)/256,0)</f>
+        <v>1715</v>
+      </c>
+      <c r="F163">
+        <f>E163-C163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>156</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="7"/>
+        <v>1723</v>
+      </c>
+      <c r="E164">
+        <f>$E$2+ROUNDDOWN(($B164*$E$4)/256,0)</f>
+        <v>1723</v>
+      </c>
+      <c r="F164">
+        <f>E164-C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>157</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="7"/>
+        <v>1731</v>
+      </c>
+      <c r="E165">
+        <f>$E$2+ROUNDDOWN(($B165*$E$4)/256,0)</f>
+        <v>1731</v>
+      </c>
+      <c r="F165">
+        <f>E165-C165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>158</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="7"/>
+        <v>1739</v>
+      </c>
+      <c r="E166">
+        <f>$E$2+ROUNDDOWN(($B166*$E$4)/256,0)</f>
+        <v>1739</v>
+      </c>
+      <c r="F166">
+        <f>E166-C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>159</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="7"/>
+        <v>1747</v>
+      </c>
+      <c r="E167">
+        <f>$E$2+ROUNDDOWN(($B167*$E$4)/256,0)</f>
+        <v>1747</v>
+      </c>
+      <c r="F167">
+        <f>E167-C167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>160</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ref="C168:C187" si="8">ROUNDDOWN($C$2+($B168*C$6),0)</f>
+        <v>1754</v>
+      </c>
+      <c r="E168">
+        <f>$E$2+ROUNDDOWN(($B168*$E$4)/256,0)</f>
+        <v>1755</v>
+      </c>
+      <c r="F168">
+        <f>E168-C168</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>161</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="8"/>
+        <v>1762</v>
+      </c>
+      <c r="E169">
+        <f>$E$2+ROUNDDOWN(($B169*$E$4)/256,0)</f>
+        <v>1762</v>
+      </c>
+      <c r="F169">
+        <f>E169-C169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>162</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="8"/>
+        <v>1770</v>
+      </c>
+      <c r="E170">
+        <f>$E$2+ROUNDDOWN(($B170*$E$4)/256,0)</f>
+        <v>1770</v>
+      </c>
+      <c r="F170">
+        <f>E170-C170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>163</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="8"/>
+        <v>1778</v>
+      </c>
+      <c r="E171">
+        <f>$E$2+ROUNDDOWN(($B171*$E$4)/256,0)</f>
+        <v>1778</v>
+      </c>
+      <c r="F171">
+        <f>E171-C171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>164</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="8"/>
+        <v>1786</v>
+      </c>
+      <c r="E172">
+        <f>$E$2+ROUNDDOWN(($B172*$E$4)/256,0)</f>
+        <v>1786</v>
+      </c>
+      <c r="F172">
+        <f>E172-C172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>165</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="8"/>
+        <v>1794</v>
+      </c>
+      <c r="E173">
+        <f>$E$2+ROUNDDOWN(($B173*$E$4)/256,0)</f>
+        <v>1794</v>
+      </c>
+      <c r="F173">
+        <f>E173-C173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>166</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="8"/>
+        <v>1801</v>
+      </c>
+      <c r="E174">
+        <f>$E$2+ROUNDDOWN(($B174*$E$4)/256,0)</f>
+        <v>1802</v>
+      </c>
+      <c r="F174">
+        <f>E174-C174</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>167</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="8"/>
+        <v>1809</v>
+      </c>
+      <c r="E175">
+        <f>$E$2+ROUNDDOWN(($B175*$E$4)/256,0)</f>
+        <v>1809</v>
+      </c>
+      <c r="F175">
+        <f>E175-C175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>168</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="8"/>
+        <v>1817</v>
+      </c>
+      <c r="E176">
+        <f>$E$2+ROUNDDOWN(($B176*$E$4)/256,0)</f>
+        <v>1817</v>
+      </c>
+      <c r="F176">
+        <f>E176-C176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>169</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="8"/>
+        <v>1825</v>
+      </c>
+      <c r="E177">
+        <f>$E$2+ROUNDDOWN(($B177*$E$4)/256,0)</f>
+        <v>1825</v>
+      </c>
+      <c r="F177">
+        <f>E177-C177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>170</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="8"/>
+        <v>1833</v>
+      </c>
+      <c r="E178">
+        <f>$E$2+ROUNDDOWN(($B178*$E$4)/256,0)</f>
+        <v>1833</v>
+      </c>
+      <c r="F178">
+        <f>E178-C178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>171</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="8"/>
+        <v>1841</v>
+      </c>
+      <c r="E179">
+        <f>$E$2+ROUNDDOWN(($B179*$E$4)/256,0)</f>
+        <v>1841</v>
+      </c>
+      <c r="F179">
+        <f>E179-C179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>172</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="8"/>
+        <v>1849</v>
+      </c>
+      <c r="E180">
+        <f>$E$2+ROUNDDOWN(($B180*$E$4)/256,0)</f>
+        <v>1849</v>
+      </c>
+      <c r="F180">
+        <f>E180-C180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>173</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="8"/>
+        <v>1856</v>
+      </c>
+      <c r="E181">
+        <f>$E$2+ROUNDDOWN(($B181*$E$4)/256,0)</f>
+        <v>1856</v>
+      </c>
+      <c r="F181">
+        <f>E181-C181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>174</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="8"/>
+        <v>1864</v>
+      </c>
+      <c r="E182">
+        <f>$E$2+ROUNDDOWN(($B182*$E$4)/256,0)</f>
+        <v>1864</v>
+      </c>
+      <c r="F182">
+        <f>E182-C182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>175</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="8"/>
+        <v>1872</v>
+      </c>
+      <c r="E183">
+        <f>$E$2+ROUNDDOWN(($B183*$E$4)/256,0)</f>
+        <v>1872</v>
+      </c>
+      <c r="F183">
+        <f>E183-C183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>176</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="8"/>
+        <v>1880</v>
+      </c>
+      <c r="E184">
+        <f>$E$2+ROUNDDOWN(($B184*$E$4)/256,0)</f>
+        <v>1880</v>
+      </c>
+      <c r="F184">
+        <f>E184-C184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>177</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="8"/>
+        <v>1888</v>
+      </c>
+      <c r="E185">
+        <f>$E$2+ROUNDDOWN(($B185*$E$4)/256,0)</f>
+        <v>1888</v>
+      </c>
+      <c r="F185">
+        <f>E185-C185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>178</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="8"/>
+        <v>1896</v>
+      </c>
+      <c r="E186">
+        <f>$E$2+ROUNDDOWN(($B186*$E$4)/256,0)</f>
+        <v>1896</v>
+      </c>
+      <c r="F186">
+        <f>E186-C186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>179</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="8"/>
+        <v>1903</v>
+      </c>
+      <c r="E187">
+        <f>$E$2+ROUNDDOWN(($B187*$E$4)/256,0)</f>
+        <v>1904</v>
+      </c>
+      <c r="F187">
+        <f>E187-C187</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>180</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ref="C188:C207" si="9">ROUNDDOWN($C$2+($B188*C$6),0)</f>
+        <v>1911</v>
+      </c>
+      <c r="E188">
+        <f>$E$2+ROUNDDOWN(($B188*$E$4)/256,0)</f>
+        <v>1911</v>
+      </c>
+      <c r="F188">
+        <f>E188-C188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>181</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="9"/>
+        <v>1919</v>
+      </c>
+      <c r="E189">
+        <f>$E$2+ROUNDDOWN(($B189*$E$4)/256,0)</f>
+        <v>1919</v>
+      </c>
+      <c r="F189">
+        <f>E189-C189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>182</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="9"/>
+        <v>1927</v>
+      </c>
+      <c r="E190">
+        <f>$E$2+ROUNDDOWN(($B190*$E$4)/256,0)</f>
+        <v>1927</v>
+      </c>
+      <c r="F190">
+        <f>E190-C190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>183</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="9"/>
+        <v>1935</v>
+      </c>
+      <c r="E191">
+        <f>$E$2+ROUNDDOWN(($B191*$E$4)/256,0)</f>
+        <v>1935</v>
+      </c>
+      <c r="F191">
+        <f>E191-C191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>184</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="9"/>
+        <v>1943</v>
+      </c>
+      <c r="E192">
+        <f>$E$2+ROUNDDOWN(($B192*$E$4)/256,0)</f>
+        <v>1943</v>
+      </c>
+      <c r="F192">
+        <f>E192-C192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>185</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="9"/>
+        <v>1950</v>
+      </c>
+      <c r="E193">
+        <f>$E$2+ROUNDDOWN(($B193*$E$4)/256,0)</f>
+        <v>1951</v>
+      </c>
+      <c r="F193">
+        <f>E193-C193</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>186</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="9"/>
+        <v>1958</v>
+      </c>
+      <c r="E194">
+        <f>$E$2+ROUNDDOWN(($B194*$E$4)/256,0)</f>
+        <v>1958</v>
+      </c>
+      <c r="F194">
+        <f>E194-C194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>187</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="9"/>
+        <v>1966</v>
+      </c>
+      <c r="E195">
+        <f>$E$2+ROUNDDOWN(($B195*$E$4)/256,0)</f>
+        <v>1966</v>
+      </c>
+      <c r="F195">
+        <f>E195-C195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>188</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="9"/>
+        <v>1974</v>
+      </c>
+      <c r="E196">
+        <f>$E$2+ROUNDDOWN(($B196*$E$4)/256,0)</f>
+        <v>1974</v>
+      </c>
+      <c r="F196">
+        <f>E196-C196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>189</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="9"/>
+        <v>1982</v>
+      </c>
+      <c r="E197">
+        <f>$E$2+ROUNDDOWN(($B197*$E$4)/256,0)</f>
+        <v>1982</v>
+      </c>
+      <c r="F197">
+        <f>E197-C197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>190</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="9"/>
+        <v>1990</v>
+      </c>
+      <c r="E198">
+        <f>$E$2+ROUNDDOWN(($B198*$E$4)/256,0)</f>
+        <v>1990</v>
+      </c>
+      <c r="F198">
+        <f>E198-C198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>191</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="9"/>
+        <v>1998</v>
+      </c>
+      <c r="E199">
+        <f>$E$2+ROUNDDOWN(($B199*$E$4)/256,0)</f>
+        <v>1998</v>
+      </c>
+      <c r="F199">
+        <f>E199-C199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>192</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="9"/>
+        <v>2005</v>
+      </c>
+      <c r="E200">
+        <f>$E$2+ROUNDDOWN(($B200*$E$4)/256,0)</f>
+        <v>2006</v>
+      </c>
+      <c r="F200">
+        <f>E200-C200</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>193</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="9"/>
+        <v>2013</v>
+      </c>
+      <c r="E201">
+        <f>$E$2+ROUNDDOWN(($B201*$E$4)/256,0)</f>
+        <v>2013</v>
+      </c>
+      <c r="F201">
+        <f>E201-C201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>194</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="9"/>
+        <v>2021</v>
+      </c>
+      <c r="E202">
+        <f>$E$2+ROUNDDOWN(($B202*$E$4)/256,0)</f>
+        <v>2021</v>
+      </c>
+      <c r="F202">
+        <f>E202-C202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>195</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="9"/>
+        <v>2029</v>
+      </c>
+      <c r="E203">
+        <f>$E$2+ROUNDDOWN(($B203*$E$4)/256,0)</f>
+        <v>2029</v>
+      </c>
+      <c r="F203">
+        <f>E203-C203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>196</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="9"/>
+        <v>2037</v>
+      </c>
+      <c r="E204">
+        <f>$E$2+ROUNDDOWN(($B204*$E$4)/256,0)</f>
+        <v>2037</v>
+      </c>
+      <c r="F204">
+        <f>E204-C204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>197</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="9"/>
+        <v>2045</v>
+      </c>
+      <c r="E205">
+        <f>$E$2+ROUNDDOWN(($B205*$E$4)/256,0)</f>
+        <v>2045</v>
+      </c>
+      <c r="F205">
+        <f>E205-C205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>198</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="9"/>
+        <v>2052</v>
+      </c>
+      <c r="E206">
+        <f>$E$2+ROUNDDOWN(($B206*$E$4)/256,0)</f>
+        <v>2053</v>
+      </c>
+      <c r="F206">
+        <f>E206-C206</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>199</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="9"/>
+        <v>2060</v>
+      </c>
+      <c r="E207">
+        <f>$E$2+ROUNDDOWN(($B207*$E$4)/256,0)</f>
+        <v>2060</v>
+      </c>
+      <c r="F207">
+        <f>E207-C207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>200</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ref="C208:C227" si="10">ROUNDDOWN($C$2+($B208*C$6),0)</f>
+        <v>2068</v>
+      </c>
+      <c r="E208">
+        <f>$E$2+ROUNDDOWN(($B208*$E$4)/256,0)</f>
+        <v>2068</v>
+      </c>
+      <c r="F208">
+        <f>E208-C208</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>201</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="10"/>
+        <v>2076</v>
+      </c>
+      <c r="E209">
+        <f>$E$2+ROUNDDOWN(($B209*$E$4)/256,0)</f>
+        <v>2076</v>
+      </c>
+      <c r="F209">
+        <f>E209-C209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>202</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="10"/>
+        <v>2084</v>
+      </c>
+      <c r="E210">
+        <f>$E$2+ROUNDDOWN(($B210*$E$4)/256,0)</f>
+        <v>2084</v>
+      </c>
+      <c r="F210">
+        <f>E210-C210</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>203</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="10"/>
+        <v>2092</v>
+      </c>
+      <c r="E211">
+        <f>$E$2+ROUNDDOWN(($B211*$E$4)/256,0)</f>
+        <v>2092</v>
+      </c>
+      <c r="F211">
+        <f>E211-C211</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>204</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="10"/>
+        <v>2100</v>
+      </c>
+      <c r="E212">
+        <f>$E$2+ROUNDDOWN(($B212*$E$4)/256,0)</f>
+        <v>2100</v>
+      </c>
+      <c r="F212">
+        <f>E212-C212</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>205</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="10"/>
+        <v>2107</v>
+      </c>
+      <c r="E213">
+        <f>$E$2+ROUNDDOWN(($B213*$E$4)/256,0)</f>
+        <v>2107</v>
+      </c>
+      <c r="F213">
+        <f>E213-C213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>206</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="10"/>
+        <v>2115</v>
+      </c>
+      <c r="E214">
+        <f>$E$2+ROUNDDOWN(($B214*$E$4)/256,0)</f>
+        <v>2115</v>
+      </c>
+      <c r="F214">
+        <f>E214-C214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>207</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="10"/>
+        <v>2123</v>
+      </c>
+      <c r="E215">
+        <f>$E$2+ROUNDDOWN(($B215*$E$4)/256,0)</f>
+        <v>2123</v>
+      </c>
+      <c r="F215">
+        <f>E215-C215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>208</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="10"/>
+        <v>2131</v>
+      </c>
+      <c r="E216">
+        <f>$E$2+ROUNDDOWN(($B216*$E$4)/256,0)</f>
+        <v>2131</v>
+      </c>
+      <c r="F216">
+        <f>E216-C216</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>209</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="10"/>
+        <v>2139</v>
+      </c>
+      <c r="E217">
+        <f>$E$2+ROUNDDOWN(($B217*$E$4)/256,0)</f>
+        <v>2139</v>
+      </c>
+      <c r="F217">
+        <f>E217-C217</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>210</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="10"/>
+        <v>2147</v>
+      </c>
+      <c r="E218">
+        <f>$E$2+ROUNDDOWN(($B218*$E$4)/256,0)</f>
+        <v>2147</v>
+      </c>
+      <c r="F218">
+        <f>E218-C218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>211</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="10"/>
+        <v>2154</v>
+      </c>
+      <c r="E219">
+        <f>$E$2+ROUNDDOWN(($B219*$E$4)/256,0)</f>
+        <v>2155</v>
+      </c>
+      <c r="F219">
+        <f>E219-C219</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>212</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="10"/>
+        <v>2162</v>
+      </c>
+      <c r="E220">
+        <f>$E$2+ROUNDDOWN(($B220*$E$4)/256,0)</f>
+        <v>2162</v>
+      </c>
+      <c r="F220">
+        <f>E220-C220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>213</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="10"/>
+        <v>2170</v>
+      </c>
+      <c r="E221">
+        <f>$E$2+ROUNDDOWN(($B221*$E$4)/256,0)</f>
+        <v>2170</v>
+      </c>
+      <c r="F221">
+        <f>E221-C221</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>214</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="10"/>
+        <v>2178</v>
+      </c>
+      <c r="E222">
+        <f>$E$2+ROUNDDOWN(($B222*$E$4)/256,0)</f>
+        <v>2178</v>
+      </c>
+      <c r="F222">
+        <f>E222-C222</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>215</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="10"/>
+        <v>2186</v>
+      </c>
+      <c r="E223">
+        <f>$E$2+ROUNDDOWN(($B223*$E$4)/256,0)</f>
+        <v>2186</v>
+      </c>
+      <c r="F223">
+        <f>E223-C223</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>216</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="10"/>
+        <v>2194</v>
+      </c>
+      <c r="E224">
+        <f>$E$2+ROUNDDOWN(($B224*$E$4)/256,0)</f>
+        <v>2194</v>
+      </c>
+      <c r="F224">
+        <f>E224-C224</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>217</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="10"/>
+        <v>2201</v>
+      </c>
+      <c r="E225">
+        <f>$E$2+ROUNDDOWN(($B225*$E$4)/256,0)</f>
+        <v>2202</v>
+      </c>
+      <c r="F225">
+        <f>E225-C225</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>218</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="10"/>
+        <v>2209</v>
+      </c>
+      <c r="E226">
+        <f>$E$2+ROUNDDOWN(($B226*$E$4)/256,0)</f>
+        <v>2209</v>
+      </c>
+      <c r="F226">
+        <f>E226-C226</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>219</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="10"/>
+        <v>2217</v>
+      </c>
+      <c r="E227">
+        <f>$E$2+ROUNDDOWN(($B227*$E$4)/256,0)</f>
+        <v>2217</v>
+      </c>
+      <c r="F227">
+        <f>E227-C227</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>220</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ref="C228:C247" si="11">ROUNDDOWN($C$2+($B228*C$6),0)</f>
+        <v>2225</v>
+      </c>
+      <c r="E228">
+        <f>$E$2+ROUNDDOWN(($B228*$E$4)/256,0)</f>
+        <v>2225</v>
+      </c>
+      <c r="F228">
+        <f>E228-C228</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>221</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="11"/>
+        <v>2233</v>
+      </c>
+      <c r="E229">
+        <f>$E$2+ROUNDDOWN(($B229*$E$4)/256,0)</f>
+        <v>2233</v>
+      </c>
+      <c r="F229">
+        <f>E229-C229</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>222</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="11"/>
+        <v>2241</v>
+      </c>
+      <c r="E230">
+        <f>$E$2+ROUNDDOWN(($B230*$E$4)/256,0)</f>
+        <v>2241</v>
+      </c>
+      <c r="F230">
+        <f>E230-C230</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>223</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="11"/>
+        <v>2249</v>
+      </c>
+      <c r="E231">
+        <f>$E$2+ROUNDDOWN(($B231*$E$4)/256,0)</f>
+        <v>2249</v>
+      </c>
+      <c r="F231">
+        <f>E231-C231</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>224</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="11"/>
+        <v>2256</v>
+      </c>
+      <c r="E232">
+        <f>$E$2+ROUNDDOWN(($B232*$E$4)/256,0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F232">
+        <f>E232-C232</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>225</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="11"/>
+        <v>2264</v>
+      </c>
+      <c r="E233">
+        <f>$E$2+ROUNDDOWN(($B233*$E$4)/256,0)</f>
+        <v>2264</v>
+      </c>
+      <c r="F233">
+        <f>E233-C233</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>226</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="11"/>
+        <v>2272</v>
+      </c>
+      <c r="E234">
+        <f>$E$2+ROUNDDOWN(($B234*$E$4)/256,0)</f>
+        <v>2272</v>
+      </c>
+      <c r="F234">
+        <f>E234-C234</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>227</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="11"/>
+        <v>2280</v>
+      </c>
+      <c r="E235">
+        <f>$E$2+ROUNDDOWN(($B235*$E$4)/256,0)</f>
+        <v>2280</v>
+      </c>
+      <c r="F235">
+        <f>E235-C235</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>228</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="11"/>
+        <v>2288</v>
+      </c>
+      <c r="E236">
+        <f>$E$2+ROUNDDOWN(($B236*$E$4)/256,0)</f>
+        <v>2288</v>
+      </c>
+      <c r="F236">
+        <f>E236-C236</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>229</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="11"/>
+        <v>2296</v>
+      </c>
+      <c r="E237">
+        <f>$E$2+ROUNDDOWN(($B237*$E$4)/256,0)</f>
+        <v>2296</v>
+      </c>
+      <c r="F237">
+        <f>E237-C237</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>230</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="11"/>
+        <v>2303</v>
+      </c>
+      <c r="E238">
+        <f>$E$2+ROUNDDOWN(($B238*$E$4)/256,0)</f>
+        <v>2304</v>
+      </c>
+      <c r="F238">
+        <f>E238-C238</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>231</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="11"/>
+        <v>2311</v>
+      </c>
+      <c r="E239">
+        <f>$E$2+ROUNDDOWN(($B239*$E$4)/256,0)</f>
+        <v>2311</v>
+      </c>
+      <c r="F239">
+        <f>E239-C239</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>232</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="11"/>
+        <v>2319</v>
+      </c>
+      <c r="E240">
+        <f>$E$2+ROUNDDOWN(($B240*$E$4)/256,0)</f>
+        <v>2319</v>
+      </c>
+      <c r="F240">
+        <f>E240-C240</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>233</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="11"/>
+        <v>2327</v>
+      </c>
+      <c r="E241">
+        <f>$E$2+ROUNDDOWN(($B241*$E$4)/256,0)</f>
+        <v>2327</v>
+      </c>
+      <c r="F241">
+        <f>E241-C241</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>234</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="11"/>
+        <v>2335</v>
+      </c>
+      <c r="E242">
+        <f>$E$2+ROUNDDOWN(($B242*$E$4)/256,0)</f>
+        <v>2335</v>
+      </c>
+      <c r="F242">
+        <f>E242-C242</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>235</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="11"/>
+        <v>2343</v>
+      </c>
+      <c r="E243">
+        <f>$E$2+ROUNDDOWN(($B243*$E$4)/256,0)</f>
+        <v>2343</v>
+      </c>
+      <c r="F243">
+        <f>E243-C243</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>236</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="11"/>
+        <v>2350</v>
+      </c>
+      <c r="E244">
+        <f>$E$2+ROUNDDOWN(($B244*$E$4)/256,0)</f>
+        <v>2351</v>
+      </c>
+      <c r="F244">
+        <f>E244-C244</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>237</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="11"/>
+        <v>2358</v>
+      </c>
+      <c r="E245">
+        <f>$E$2+ROUNDDOWN(($B245*$E$4)/256,0)</f>
+        <v>2358</v>
+      </c>
+      <c r="F245">
+        <f>E245-C245</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>238</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="11"/>
+        <v>2366</v>
+      </c>
+      <c r="E246">
+        <f>$E$2+ROUNDDOWN(($B246*$E$4)/256,0)</f>
+        <v>2366</v>
+      </c>
+      <c r="F246">
+        <f>E246-C246</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>239</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="11"/>
+        <v>2374</v>
+      </c>
+      <c r="E247">
+        <f>$E$2+ROUNDDOWN(($B247*$E$4)/256,0)</f>
+        <v>2374</v>
+      </c>
+      <c r="F247">
+        <f>E247-C247</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>240</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ref="C248:C263" si="12">ROUNDDOWN($C$2+($B248*C$6),0)</f>
+        <v>2382</v>
+      </c>
+      <c r="E248">
+        <f>$E$2+ROUNDDOWN(($B248*$E$4)/256,0)</f>
+        <v>2382</v>
+      </c>
+      <c r="F248">
+        <f>E248-C248</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>241</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="12"/>
+        <v>2390</v>
+      </c>
+      <c r="E249">
+        <f>$E$2+ROUNDDOWN(($B249*$E$4)/256,0)</f>
+        <v>2390</v>
+      </c>
+      <c r="F249">
+        <f>E249-C249</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>242</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="12"/>
+        <v>2398</v>
+      </c>
+      <c r="E250">
+        <f>$E$2+ROUNDDOWN(($B250*$E$4)/256,0)</f>
+        <v>2398</v>
+      </c>
+      <c r="F250">
+        <f>E250-C250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>243</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="12"/>
+        <v>2405</v>
+      </c>
+      <c r="E251">
+        <f>$E$2+ROUNDDOWN(($B251*$E$4)/256,0)</f>
+        <v>2406</v>
+      </c>
+      <c r="F251">
+        <f>E251-C251</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>244</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="12"/>
+        <v>2413</v>
+      </c>
+      <c r="E252">
+        <f>$E$2+ROUNDDOWN(($B252*$E$4)/256,0)</f>
+        <v>2413</v>
+      </c>
+      <c r="F252">
+        <f>E252-C252</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>245</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="12"/>
+        <v>2421</v>
+      </c>
+      <c r="E253">
+        <f>$E$2+ROUNDDOWN(($B253*$E$4)/256,0)</f>
+        <v>2421</v>
+      </c>
+      <c r="F253">
+        <f>E253-C253</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>246</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="12"/>
+        <v>2429</v>
+      </c>
+      <c r="E254">
+        <f>$E$2+ROUNDDOWN(($B254*$E$4)/256,0)</f>
+        <v>2429</v>
+      </c>
+      <c r="F254">
+        <f>E254-C254</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>247</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="12"/>
+        <v>2437</v>
+      </c>
+      <c r="E255">
+        <f>$E$2+ROUNDDOWN(($B255*$E$4)/256,0)</f>
+        <v>2437</v>
+      </c>
+      <c r="F255">
+        <f>E255-C255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>248</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="12"/>
+        <v>2445</v>
+      </c>
+      <c r="E256">
+        <f>$E$2+ROUNDDOWN(($B256*$E$4)/256,0)</f>
+        <v>2445</v>
+      </c>
+      <c r="F256">
+        <f>E256-C256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>249</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="12"/>
+        <v>2452</v>
+      </c>
+      <c r="E257">
+        <f>$E$2+ROUNDDOWN(($B257*$E$4)/256,0)</f>
+        <v>2453</v>
+      </c>
+      <c r="F257">
+        <f>E257-C257</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>250</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="12"/>
+        <v>2460</v>
+      </c>
+      <c r="E258">
+        <f>$E$2+ROUNDDOWN(($B258*$E$4)/256,0)</f>
+        <v>2460</v>
+      </c>
+      <c r="F258">
+        <f>E258-C258</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>251</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="12"/>
+        <v>2468</v>
+      </c>
+      <c r="E259">
+        <f>$E$2+ROUNDDOWN(($B259*$E$4)/256,0)</f>
+        <v>2468</v>
+      </c>
+      <c r="F259">
+        <f>E259-C259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>252</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="12"/>
+        <v>2476</v>
+      </c>
+      <c r="E260">
+        <f>$E$2+ROUNDDOWN(($B260*$E$4)/256,0)</f>
+        <v>2476</v>
+      </c>
+      <c r="F260">
+        <f>E260-C260</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>253</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="12"/>
+        <v>2484</v>
+      </c>
+      <c r="E261">
+        <f>$E$2+ROUNDDOWN(($B261*$E$4)/256,0)</f>
+        <v>2484</v>
+      </c>
+      <c r="F261">
+        <f>E261-C261</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>254</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="12"/>
+        <v>2492</v>
+      </c>
+      <c r="E262">
+        <f>$E$2+ROUNDDOWN(($B262*$E$4)/256,0)</f>
+        <v>2492</v>
+      </c>
+      <c r="F262">
+        <f>E262-C262</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>255</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="12"/>
+        <v>2500</v>
+      </c>
+      <c r="E263">
+        <f>$E$2+ROUNDDOWN(($B263*$E$4)/256,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F263">
+        <f>E263-C263</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="10">
+        <f>SUM(F8:F263)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="260" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>